--- a/src/test/resources/Data/input.xlsx
+++ b/src/test/resources/Data/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B98A3A-EE2B-4140-9709-DB2BD1AA081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6A5B0C2C-CD28-46CE-9F50-D06F39335DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC1" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="TC3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>admin</t>
   </si>
@@ -46,13 +47,19 @@
     <t>damager</t>
   </si>
   <si>
-    <t>Login Dolibarr 3.3.1</t>
-  </si>
-  <si>
-    <t>FocusBuddy</t>
-  </si>
-  <si>
-    <t>Lets focus 100%</t>
+    <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -76,12 +83,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,32 +451,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
